--- a/natmiOut/OldD0/LR-pairs_lrc2p/Adam17-Itgb1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Adam17-Itgb1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.3507905520441</v>
+        <v>32.47042033333333</v>
       </c>
       <c r="H2">
-        <v>22.3507905520441</v>
+        <v>97.411261</v>
       </c>
       <c r="I2">
-        <v>0.4314579212493865</v>
+        <v>0.5240295449207956</v>
       </c>
       <c r="J2">
-        <v>0.4314579212493865</v>
+        <v>0.5240295449207955</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N2">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q2">
-        <v>2364.283847717586</v>
+        <v>3800.486158341314</v>
       </c>
       <c r="R2">
-        <v>2364.283847717586</v>
+        <v>34204.37542507183</v>
       </c>
       <c r="S2">
-        <v>0.1312829131795829</v>
+        <v>0.1700667482275122</v>
       </c>
       <c r="T2">
-        <v>0.1312829131795829</v>
+        <v>0.1700667482275121</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.3507905520441</v>
+        <v>32.47042033333333</v>
       </c>
       <c r="H3">
-        <v>22.3507905520441</v>
+        <v>97.411261</v>
       </c>
       <c r="I3">
-        <v>0.4314579212493865</v>
+        <v>0.5240295449207956</v>
       </c>
       <c r="J3">
-        <v>0.4314579212493865</v>
+        <v>0.5240295449207955</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N3">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q3">
-        <v>2268.410025507997</v>
+        <v>3298.346509689025</v>
       </c>
       <c r="R3">
-        <v>2268.410025507997</v>
+        <v>29685.11858720123</v>
       </c>
       <c r="S3">
-        <v>0.1259592737656915</v>
+        <v>0.1475966605480794</v>
       </c>
       <c r="T3">
-        <v>0.1259592737656915</v>
+        <v>0.1475966605480793</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.3507905520441</v>
+        <v>32.47042033333333</v>
       </c>
       <c r="H4">
-        <v>22.3507905520441</v>
+        <v>97.411261</v>
       </c>
       <c r="I4">
-        <v>0.4314579212493865</v>
+        <v>0.5240295449207956</v>
       </c>
       <c r="J4">
-        <v>0.4314579212493865</v>
+        <v>0.5240295449207955</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N4">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q4">
-        <v>3137.464249212965</v>
+        <v>4611.669548247116</v>
       </c>
       <c r="R4">
-        <v>3137.464249212965</v>
+        <v>41505.02593422405</v>
       </c>
       <c r="S4">
-        <v>0.1742157343041122</v>
+        <v>0.206366136145204</v>
       </c>
       <c r="T4">
-        <v>0.1742157343041122</v>
+        <v>0.206366136145204</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.4088347514892</v>
+        <v>22.43791</v>
       </c>
       <c r="H5">
-        <v>22.4088347514892</v>
+        <v>67.31372999999999</v>
       </c>
       <c r="I5">
-        <v>0.4325784019578811</v>
+        <v>0.3621181261458191</v>
       </c>
       <c r="J5">
-        <v>0.4325784019578811</v>
+        <v>0.362118126145819</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N5">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q5">
-        <v>2370.423807862718</v>
+        <v>2626.23537058333</v>
       </c>
       <c r="R5">
-        <v>2370.423807862718</v>
+        <v>23636.11833524997</v>
       </c>
       <c r="S5">
-        <v>0.1316238501848573</v>
+        <v>0.1175205726180337</v>
       </c>
       <c r="T5">
-        <v>0.1316238501848573</v>
+        <v>0.1175205726180337</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>22.4088347514892</v>
+        <v>22.43791</v>
       </c>
       <c r="H6">
-        <v>22.4088347514892</v>
+        <v>67.31372999999999</v>
       </c>
       <c r="I6">
-        <v>0.4325784019578811</v>
+        <v>0.3621181261458191</v>
       </c>
       <c r="J6">
-        <v>0.4325784019578811</v>
+        <v>0.362118126145819</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N6">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q6">
-        <v>2274.301004783977</v>
+        <v>2279.243735481973</v>
       </c>
       <c r="R6">
-        <v>2274.301004783977</v>
+        <v>20513.19361933776</v>
       </c>
       <c r="S6">
-        <v>0.1262863854708185</v>
+        <v>0.101993154128608</v>
       </c>
       <c r="T6">
-        <v>0.1262863854708185</v>
+        <v>0.101993154128608</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>22.4088347514892</v>
+        <v>22.43791</v>
       </c>
       <c r="H7">
-        <v>22.4088347514892</v>
+        <v>67.31372999999999</v>
       </c>
       <c r="I7">
-        <v>0.4325784019578811</v>
+        <v>0.3621181261458191</v>
       </c>
       <c r="J7">
-        <v>0.4325784019578811</v>
+        <v>0.362118126145819</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N7">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P7">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q7">
-        <v>3145.612131061222</v>
+        <v>3186.784316650293</v>
       </c>
       <c r="R7">
-        <v>3145.612131061222</v>
+        <v>28681.05884985264</v>
       </c>
       <c r="S7">
-        <v>0.1746681663022053</v>
+        <v>0.1426043993991773</v>
       </c>
       <c r="T7">
-        <v>0.1746681663022053</v>
+        <v>0.1426043993991773</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.04331874098024</v>
+        <v>7.054627</v>
       </c>
       <c r="H8">
-        <v>7.04331874098024</v>
+        <v>21.163881</v>
       </c>
       <c r="I8">
-        <v>0.1359636767927324</v>
+        <v>0.1138523289333856</v>
       </c>
       <c r="J8">
-        <v>0.1359636767927324</v>
+        <v>0.1138523289333855</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N8">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O8">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P8">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q8">
-        <v>745.0476838772574</v>
+        <v>825.7057343430009</v>
       </c>
       <c r="R8">
-        <v>745.0476838772574</v>
+        <v>7431.351609087009</v>
       </c>
       <c r="S8">
-        <v>0.0413706799594018</v>
+        <v>0.03694924369723566</v>
       </c>
       <c r="T8">
-        <v>0.0413706799594018</v>
+        <v>0.03694924369723566</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.04331874098024</v>
+        <v>7.054627</v>
       </c>
       <c r="H9">
-        <v>7.04331874098024</v>
+        <v>21.163881</v>
       </c>
       <c r="I9">
-        <v>0.1359636767927324</v>
+        <v>0.1138523289333856</v>
       </c>
       <c r="J9">
-        <v>0.1359636767927324</v>
+        <v>0.1138523289333855</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N9">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O9">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P9">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q9">
-        <v>714.8353346914053</v>
+        <v>716.6092740327414</v>
       </c>
       <c r="R9">
-        <v>714.8353346914053</v>
+        <v>6449.483466294672</v>
       </c>
       <c r="S9">
-        <v>0.03969306192764707</v>
+        <v>0.03206732083918867</v>
       </c>
       <c r="T9">
-        <v>0.03969306192764707</v>
+        <v>0.03206732083918865</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.04331874098024</v>
+        <v>7.054627</v>
       </c>
       <c r="H10">
-        <v>7.04331874098024</v>
+        <v>21.163881</v>
       </c>
       <c r="I10">
-        <v>0.1359636767927324</v>
+        <v>0.1138523289333856</v>
       </c>
       <c r="J10">
-        <v>0.1359636767927324</v>
+        <v>0.1138523289333855</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N10">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O10">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P10">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q10">
-        <v>988.6970527588869</v>
+        <v>1001.946022754245</v>
       </c>
       <c r="R10">
-        <v>988.6970527588869</v>
+        <v>9017.514204788209</v>
       </c>
       <c r="S10">
-        <v>0.05489993490568352</v>
+        <v>0.04483576439696122</v>
       </c>
       <c r="T10">
-        <v>0.05489993490568352</v>
+        <v>0.04483576439696121</v>
       </c>
     </row>
   </sheetData>
